--- a/data/Excel2bSDD_template.xlsx
+++ b/data/Excel2bSDD_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keiffer\Documents\GitHub\bsddConverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keiffer\Documents\GitHub\bsddConverter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E5B45-07CC-4E58-8926-B98B170C8495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF0C34-3DD7-4670-9F7C-F28E03D4C18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22545" yWindow="0" windowWidth="15960" windowHeight="20985" firstSheet="2" activeTab="3" xr2:uid="{8EBA3E12-7256-469D-A564-02C888068302}"/>
+    <workbookView xWindow="19110" yWindow="2130" windowWidth="16650" windowHeight="15795" firstSheet="2" activeTab="5" xr2:uid="{8EBA3E12-7256-469D-A564-02C888068302}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="11" r:id="rId1"/>
@@ -16346,15 +16346,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -16366,68 +16362,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFBFBFB"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFBFBFB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4F2C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFBFBFB"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFBFBFB"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE285"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -16968,13 +16924,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B084CAD9-E9BE-4FE4-A787-8113FDE2F992}" name="Dictionary" displayName="Dictionary" ref="C7:R8" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B084CAD9-E9BE-4FE4-A787-8113FDE2F992}" name="Dictionary" displayName="Dictionary" ref="C7:R8" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="C7:R8" xr:uid="{B084CAD9-E9BE-4FE4-A787-8113FDE2F992}"/>
   <tableColumns count="16">
     <tableColumn id="2" xr3:uid="{BC89D12D-1E16-4FF4-9EFF-0519D2159017}" name="OrganizationCode"/>
     <tableColumn id="7" xr3:uid="{1D180AF6-78DB-4413-B559-64B4690CCEAF}" name="DictionaryCode"/>
     <tableColumn id="3" xr3:uid="{A69AF0D8-D3B0-461C-8654-EFF87B8FF3C7}" name="DictionaryName"/>
-    <tableColumn id="1" xr3:uid="{D096599B-93A8-484B-8EF1-1E2339A78B4F}" name="DictionaryVersion" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{D096599B-93A8-484B-8EF1-1E2339A78B4F}" name="DictionaryVersion" dataDxfId="40"/>
     <tableColumn id="12" xr3:uid="{BF1D5BCB-D59C-4B5A-9021-0F751FA59BEA}" name="LanguageIsoCode"/>
     <tableColumn id="21" xr3:uid="{6707D8A4-9D38-4A76-9A51-F5736F2E9EC5}" name="LanguageOnly"/>
     <tableColumn id="5" xr3:uid="{FF816D99-59E6-4F4D-9EF9-51AB9EBC8AB1}" name="UseOwnUri"/>
@@ -16985,7 +16941,7 @@
     <tableColumn id="10" xr3:uid="{AE166D22-F214-4D0C-8758-07121A81827D}" name="MoreInfoUrl"/>
     <tableColumn id="13" xr3:uid="{7A096555-0F82-4E33-8043-4E0C376C52E9}" name="QualityAssuranceProcedure"/>
     <tableColumn id="14" xr3:uid="{E8344E3D-2B0E-489C-90DF-0744F98E80B2}" name="QualityAssuranceProcedureUrl"/>
-    <tableColumn id="15" xr3:uid="{9DDE8C54-BD92-43DC-83EE-56977E5DD031}" name="ReleaseDate" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{9DDE8C54-BD92-43DC-83EE-56977E5DD031}" name="ReleaseDate" dataDxfId="39"/>
     <tableColumn id="16" xr3:uid="{CC641A83-FABF-407B-857D-7DE694FEC16D}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17013,10 +16969,10 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D52B0E92-CD6E-4D60-BB9F-9DAC7EEC3A8B}" name="ClassRelationType" displayName="ClassRelationType" ref="J4:J12" totalsRowShown="0" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D52B0E92-CD6E-4D60-BB9F-9DAC7EEC3A8B}" name="ClassRelationType" displayName="ClassRelationType" ref="J4:J12" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="J4:J12" xr:uid="{D52B0E92-CD6E-4D60-BB9F-9DAC7EEC3A8B}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BDFEFF8D-4063-4656-AA1F-DE9242DC276C}" name="RelationType (Class)" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{BDFEFF8D-4063-4656-AA1F-DE9242DC276C}" name="RelationType (Class)" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17087,29 +17043,29 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{810790FB-2527-4410-8E01-938A0F9B6F81}" name="Units" displayName="Units" ref="AB4:AC604" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{810790FB-2527-4410-8E01-938A0F9B6F81}" name="Units" displayName="Units" ref="AB4:AC604" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="AB4:AC604" xr:uid="{810790FB-2527-4410-8E01-938A0F9B6F81}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3D744814-F9A5-4BE1-83D4-77072DAD9089}" name="Units" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{12EDF4B1-3C78-4F65-AABF-779FBC7D67BD}" name="Names" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{3D744814-F9A5-4BE1-83D4-77072DAD9089}" name="Units" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{12EDF4B1-3C78-4F65-AABF-779FBC7D67BD}" name="Names" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B8AB3DC7-FCE8-4ACD-A492-C214E46F3768}" name="Class" displayName="Class" ref="C7:AC62" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B8AB3DC7-FCE8-4ACD-A492-C214E46F3768}" name="Class" displayName="Class" ref="C7:AC62" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="C7:AC62" xr:uid="{B8AB3DC7-FCE8-4ACD-A492-C214E46F3768}"/>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{F7BEC937-4C35-4A08-80D4-9EAE15DF25DB}" name="Code" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{F7BEC937-4C35-4A08-80D4-9EAE15DF25DB}" name="Code" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{1614FF18-AD12-4230-BAD0-03CAD94E0FE3}" name="Name"/>
     <tableColumn id="27" xr3:uid="{839CF150-BD09-4891-8A2C-3C546F686C34}" name="ClassType"/>
-    <tableColumn id="4" xr3:uid="{D00C69BE-9710-481B-A5DA-07AC924FF8EE}" name="Definition" dataDxfId="40"/>
-    <tableColumn id="28" xr3:uid="{E599F65E-454F-4CB2-BBB9-E9A828683D7F}" name="Description" dataDxfId="39"/>
-    <tableColumn id="30" xr3:uid="{D0EDB739-FD01-4AC1-B188-1C6FD8C3CC58}" name="ParentClassCode" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{D00C69BE-9710-481B-A5DA-07AC924FF8EE}" name="Definition" dataDxfId="36"/>
+    <tableColumn id="28" xr3:uid="{E599F65E-454F-4CB2-BBB9-E9A828683D7F}" name="Description" dataDxfId="35"/>
+    <tableColumn id="30" xr3:uid="{D0EDB739-FD01-4AC1-B188-1C6FD8C3CC58}" name="ParentClassCode" dataDxfId="34"/>
     <tableColumn id="31" xr3:uid="{2B639BC5-17DE-4AE1-B743-174E94C4DB5E}" name="RelatedIfcEntityNamesList"/>
     <tableColumn id="32" xr3:uid="{106A19D2-114B-4CA9-8E16-A0AD3DCD0FEC}" name="Synonyms"/>
-    <tableColumn id="33" xr3:uid="{DA258457-548B-4DDE-BECD-B285EF26B889}" name="ActivationDateUtc" dataDxfId="37"/>
+    <tableColumn id="33" xr3:uid="{DA258457-548B-4DDE-BECD-B285EF26B889}" name="ActivationDateUtc" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{CA513B0A-563C-411D-B9D4-CE858C635122}" name="ReferenceCode"/>
     <tableColumn id="7" xr3:uid="{2E7FD710-B773-4A35-B9C9-0BE6BC4A7DFE}" name="CountriesOfUse"/>
     <tableColumn id="8" xr3:uid="{7899F02D-E718-4A4C-BE7F-7C1168B0AE01}" name="CountryOfOrigin"/>
@@ -17134,10 +17090,10 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{83F0DADD-F1D9-4F34-BF81-AAED7EF6F18E}" name="CountriesList" displayName="CountriesList" ref="U4:U250" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{83F0DADD-F1D9-4F34-BF81-AAED7EF6F18E}" name="CountriesList" displayName="CountriesList" ref="U4:U250" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="U4:U250" xr:uid="{83F0DADD-F1D9-4F34-BF81-AAED7EF6F18E}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DB10FA59-80D7-4F88-93A9-D3F492F89EA2}" name="Countries list" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{DB10FA59-80D7-4F88-93A9-D3F492F89EA2}" name="Countries list" dataDxfId="7">
       <calculatedColumnFormula>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17146,10 +17102,10 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A90746B7-60AC-4610-99E4-E4D6A4BA2844}" name="ClassURIs" displayName="ClassURIs" ref="AF4:AF40" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A90746B7-60AC-4610-99E4-E4D6A4BA2844}" name="ClassURIs" displayName="ClassURIs" ref="AF4:AF40" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="AF4:AF40" xr:uid="{A90746B7-60AC-4610-99E4-E4D6A4BA2844}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D6FC3640-CF7A-4E47-A1A7-44D288C635CD}" name="RelatedClassUri" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{D6FC3640-CF7A-4E47-A1A7-44D288C635CD}" name="RelatedClassUri" dataDxfId="4">
       <calculatedColumnFormula array="1">IF(ISBLANK(AE5),"", "https://identifier.buildingsmart.org/uri/"&amp;Dictionary[OrganizationCode]&amp;"/"&amp;Dictionary[DictionaryCode]&amp;"/"&amp;Dictionary[DictionaryVersion]&amp;"/class/"&amp;AE5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17158,7 +17114,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3F30B1BC-84B5-4FB1-B1E1-9A4C666D344A}" name="PropertyURIs" displayName="PropertyURIs" ref="AI4:AI40" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3F30B1BC-84B5-4FB1-B1E1-9A4C666D344A}" name="PropertyURIs" displayName="PropertyURIs" ref="AI4:AI40" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="AI4:AI40" xr:uid="{3F30B1BC-84B5-4FB1-B1E1-9A4C666D344A}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A18A2783-ABA7-4690-B6AD-ECD30548224B}" name="RelatedPropertyUri">
@@ -17170,13 +17126,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4F718072-B462-4D6A-B800-B77BC70AE828}" name="Property" displayName="Property" ref="C7:AU64" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4F718072-B462-4D6A-B800-B77BC70AE828}" name="Property" displayName="Property" ref="C7:AU64" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="C7:AU64" xr:uid="{4F718072-B462-4D6A-B800-B77BC70AE828}"/>
   <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{126866A8-4F7D-4443-B2C8-5F45A606CBCB}" name="Code" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{9FC2EB6E-C02C-4443-AAB0-B0BF989C7576}" name="Name" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{BCCECD0C-5332-472D-AD17-73F48131A554}" name="Definition" dataDxfId="33"/>
-    <tableColumn id="49" xr3:uid="{578F5D63-93A8-4CC8-A98A-27689DEF588C}" name="Description" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{126866A8-4F7D-4443-B2C8-5F45A606CBCB}" name="Code" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9FC2EB6E-C02C-4443-AAB0-B0BF989C7576}" name="Name" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{BCCECD0C-5332-472D-AD17-73F48131A554}" name="Definition" dataDxfId="29"/>
+    <tableColumn id="49" xr3:uid="{578F5D63-93A8-4CC8-A98A-27689DEF588C}" name="Description" dataDxfId="28"/>
     <tableColumn id="30" xr3:uid="{50AE8722-5EB4-414C-A3E9-1B03501A9F99}" name="DataType"/>
     <tableColumn id="46" xr3:uid="{31D16F16-6727-489A-9CC9-3E8218865C43}" name="Units"/>
     <tableColumn id="47" xr3:uid="{C10A0623-2C49-493C-AC8A-0A9CE8861885}" name="Example"/>
@@ -17224,13 +17180,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{32779416-8628-47FD-97B6-6035B1F0826C}" name="ClassProperty" displayName="ClassProperty" ref="C7:U249" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{32779416-8628-47FD-97B6-6035B1F0826C}" name="ClassProperty" displayName="ClassProperty" ref="C7:U249" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="C7:U249" xr:uid="{32779416-8628-47FD-97B6-6035B1F0826C}"/>
   <tableColumns count="19">
     <tableColumn id="21" xr3:uid="{E80E39FE-FCC2-4DE4-9AD8-23FD6669D0D2}" name="(Origin Class Code)"/>
     <tableColumn id="4" xr3:uid="{984BB849-D69F-4BE6-96EB-5AAB5225AB36}" name="Code"/>
     <tableColumn id="22" xr3:uid="{CEB45329-CB45-4603-8189-075F6C173E3F}" name="PropertyCode"/>
-    <tableColumn id="23" xr3:uid="{DDAC6E7E-1281-426F-B66B-3000CA90A7CD}" name="PropertyUri" dataDxfId="30"/>
+    <tableColumn id="23" xr3:uid="{DDAC6E7E-1281-426F-B66B-3000CA90A7CD}" name="PropertyUri" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{C4D57180-2347-4944-9C7C-B6348657125A}" name="Description"/>
     <tableColumn id="1" xr3:uid="{0FBBD180-1F54-459D-9A13-979D8654904D}" name="PropertySet"/>
     <tableColumn id="2" xr3:uid="{1EF33295-EE61-47C7-BD48-D356A8C8E419}" name="Unit"/>
@@ -17252,7 +17208,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{846A8863-FE97-44B6-A3F7-3F110EAA2821}" name="ClassRelation" displayName="ClassRelation" ref="C7:H27" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{846A8863-FE97-44B6-A3F7-3F110EAA2821}" name="ClassRelation" displayName="ClassRelation" ref="C7:H27" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="C7:H27" xr:uid="{846A8863-FE97-44B6-A3F7-3F110EAA2821}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{65B017CD-8994-4948-A314-20C2E28313B9}" name="(Origin Class Code)"/>
@@ -17267,16 +17223,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B7568D72-4746-4393-9161-ACB470EFDC72}" name="AllowedValue" displayName="AllowedValue" ref="C7:J2052" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B7568D72-4746-4393-9161-ACB470EFDC72}" name="AllowedValue" displayName="AllowedValue" ref="C7:J2052" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="C7:J2052" xr:uid="{B7568D72-4746-4393-9161-ACB470EFDC72}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F6E69B44-D49D-4235-9163-0730F62197AE}" name="(Origin Property Code)" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00A93773-8D12-4BB9-B0AC-4645C6BC5D16}" name="(Origin ClassProperty Code)" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{F1A89C34-1E99-4E0D-82FE-DEAE6AE4E22F}" name="Value" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{8B4805F6-2D7D-46F8-A404-3269EE74B2A5}" name="Code" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A80AEBB9-4C25-44CC-B90A-45B09102B70D}" name="Description" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{F6E69B44-D49D-4235-9163-0730F62197AE}" name="(Origin Property Code)" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00A93773-8D12-4BB9-B0AC-4645C6BC5D16}" name="(Origin ClassProperty Code)" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{F1A89C34-1E99-4E0D-82FE-DEAE6AE4E22F}" name="Value" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{8B4805F6-2D7D-46F8-A404-3269EE74B2A5}" name="Code" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A80AEBB9-4C25-44CC-B90A-45B09102B70D}" name="Description" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{D17B0E88-33F7-4A78-9F33-987F9148BCE8}" name="Uri"/>
-    <tableColumn id="4" xr3:uid="{5A68839A-967C-455B-AB58-B778730920F9}" name="SortNumber" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{5A68839A-967C-455B-AB58-B778730920F9}" name="SortNumber" dataDxfId="18"/>
     <tableColumn id="8" xr3:uid="{CDBBE80C-DB34-4653-BFA6-B7C43108A2AC}" name="OwnedUri"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17284,7 +17240,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{33DBED31-A0B2-4D20-BAD9-F6CCC2F4B577}" name="PropertyRelation" displayName="PropertyRelation" ref="C7:G27" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{33DBED31-A0B2-4D20-BAD9-F6CCC2F4B577}" name="PropertyRelation" displayName="PropertyRelation" ref="C7:G27" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="C7:G27" xr:uid="{33DBED31-A0B2-4D20-BAD9-F6CCC2F4B577}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{73282094-E210-4B20-B7C7-7155D91F1A6F}" name="(Origin Property Code)"/>
@@ -17698,16 +17654,16 @@
       <c r="M5" s="43" t="s">
         <v>1297</v>
       </c>
-      <c r="N5" s="116" t="s">
+      <c r="N5" s="124" t="s">
         <v>1900</v>
       </c>
-      <c r="O5" s="116"/>
-      <c r="P5" s="117" t="s">
+      <c r="O5" s="124"/>
+      <c r="P5" s="125" t="s">
         <v>1901</v>
       </c>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -17728,10 +17684,10 @@
         <v>1899</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
       <c r="T6" s="36"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -17752,10 +17708,10 @@
         <v>1295</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -17770,12 +17726,12 @@
       <c r="J8" s="36"/>
       <c r="L8" s="35"/>
       <c r="M8" s="43"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
       <c r="T8" s="36"/>
     </row>
     <row r="9" spans="2:20" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -17791,57 +17747,57 @@
       <c r="I9" s="1"/>
       <c r="J9" s="36"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
       <c r="T9" s="36"/>
     </row>
     <row r="10" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35"/>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="119" t="s">
         <v>1302</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="36"/>
       <c r="L10" s="39"/>
       <c r="M10" s="45"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="41"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="35"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="35"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="36"/>
       <c r="L12" s="32"/>
       <c r="M12" s="33"/>
@@ -17855,13 +17811,13 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="35"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
       <c r="J13" s="36"/>
       <c r="L13" s="35"/>
       <c r="M13" s="1" t="s">
@@ -17886,28 +17842,28 @@
       <c r="I14" s="49"/>
       <c r="J14" s="36"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="119" t="s">
+      <c r="M14" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
       <c r="T14" s="36"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="35"/>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
       <c r="L15" s="35"/>
       <c r="M15" s="38"/>
@@ -17921,15 +17877,15 @@
     </row>
     <row r="16" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35"/>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="118" t="s">
         <v>1894</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
       <c r="J16" s="36"/>
       <c r="L16" s="35"/>
       <c r="M16" s="1" t="s">
@@ -17945,39 +17901,39 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="35"/>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="118" t="s">
         <v>1884</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
       <c r="J17" s="36"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="119" t="s">
+      <c r="M17" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
       <c r="T17" s="36"/>
     </row>
     <row r="18" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="118" t="s">
         <v>1299</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="36"/>
       <c r="L18" s="35"/>
       <c r="M18" s="37"/>
@@ -17991,13 +17947,13 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="35"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="36"/>
       <c r="L19" s="35"/>
       <c r="M19" s="1" t="s">
@@ -18013,37 +17969,37 @@
     </row>
     <row r="20" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="35"/>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="118" t="s">
         <v>1300</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="36"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="119" t="s">
+      <c r="M20" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
       <c r="T20" s="36"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="35"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
       <c r="J21" s="36"/>
       <c r="L21" s="35"/>
       <c r="M21" s="37"/>
@@ -18057,15 +18013,15 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="35"/>
-      <c r="C22" s="120" t="s">
+      <c r="C22" s="118" t="s">
         <v>1895</v>
       </c>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
       <c r="J22" s="36"/>
       <c r="L22" s="35"/>
       <c r="M22" t="s">
@@ -18081,37 +18037,37 @@
     </row>
     <row r="23" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="35"/>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="118" t="s">
         <v>1896</v>
       </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="36"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="119" t="s">
+      <c r="M23" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
       <c r="T23" s="36"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="35"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="36"/>
       <c r="L24" s="35"/>
       <c r="M24" s="1"/>
@@ -18125,15 +18081,15 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="35"/>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="118" t="s">
         <v>1301</v>
       </c>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="36"/>
       <c r="L25" s="35"/>
       <c r="M25" s="1" t="s">
@@ -18149,13 +18105,13 @@
     </row>
     <row r="26" spans="2:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="35"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="36"/>
       <c r="L26" s="35"/>
       <c r="M26" s="38" t="s">
@@ -18192,6 +18148,11 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P5:S9"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C25:I26"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
@@ -18206,11 +18167,6 @@
     <mergeCell ref="C18:I19"/>
     <mergeCell ref="C20:I21"/>
     <mergeCell ref="C23:I24"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P5:S9"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M26" r:id="rId1" xr:uid="{446CDA38-9FEB-40C7-8F8B-97F722515193}"/>
@@ -19222,7 +19178,7 @@
       <c r="AB13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4601</v>
       </c>
@@ -20790,7 +20746,7 @@
   </sheetPr>
   <dimension ref="B2:AU64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -23025,10 +22981,10 @@
       <c r="AU34"/>
     </row>
     <row r="35" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="116" t="s">
         <v>4625</v>
       </c>
-      <c r="D35" s="127" t="s">
+      <c r="D35" s="117" t="s">
         <v>4629</v>
       </c>
       <c r="E35" s="98" t="s">
@@ -24801,10 +24757,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C35:D35">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31230,8 +31186,8 @@
   </sheetPr>
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63441,17 +63397,17 @@
     <row r="2" spans="2:35" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="R2" s="14" t="s">
@@ -74098,15 +74054,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF509E75560481418D481E63581C86A9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9616d7fa757021ef63342c48dc3e51f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7eceb2e2-14f5-4715-a97e-ec888e0da6de" xmlns:ns3="c2fa8c9a-0c25-4666-a594-dc84a2a56178" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e1430d254e937aa7f4424d08b5a7f75" ns2:_="" ns3:_="">
     <xsd:import namespace="7eceb2e2-14f5-4715-a97e-ec888e0da6de"/>
@@ -74375,6 +74322,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3FFB65-444F-4957-9BCB-96F76B980676}">
   <ds:schemaRefs>
@@ -74384,14 +74340,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD8B568-BE57-439E-AA25-6CF03CF1F64D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2043ED5F-908A-42AA-B1E0-774121DF155B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -74408,4 +74356,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD8B568-BE57-439E-AA25-6CF03CF1F64D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>